--- a/test/cahier_de_test.xlsx
+++ b/test/cahier_de_test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adoup\OneDrive\Documents\PROJECT\APPRENDRE_PYTHON\content\Basic\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954933E4-FE54-4706-9B42-BC8F86C46B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{077E9E22-E6FF-48B8-A62F-7277F82320C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" xr2:uid="{B44055BC-57CB-4C0A-99E7-8C611C2DB950}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{B44055BC-57CB-4C0A-99E7-8C611C2DB950}"/>
   </bookViews>
   <sheets>
     <sheet name="Développeur" sheetId="1" r:id="rId1"/>
-    <sheet name="Testeur" sheetId="3" r:id="rId2"/>
+    <sheet name="Test_Jolhan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>Scénario</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Bon fonctionnement/affichage</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
@@ -190,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B46B2BCD-8D3F-47FF-A3FA-3C33A5E0E3DB}" name="Tableau2" displayName="Tableau2" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{B46B2BCD-8D3F-47FF-A3FA-3C33A5E0E3DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B46B2BCD-8D3F-47FF-A3FA-3C33A5E0E3DB}" name="Tableau2" displayName="Tableau2" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{B46B2BCD-8D3F-47FF-A3FA-3C33A5E0E3DB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D3C7E472-F328-47CD-906E-6E4C73AD5204}" name="Scénario"/>
     <tableColumn id="2" xr3:uid="{E110DA5D-E52E-4425-9798-4F767A5554E8}" name="Input"/>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE93CF6-8D21-4C19-9F9F-69A3082BF57C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -695,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D13F7E-D0C9-4986-9194-1F3D469612A4}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -727,6 +730,159 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>-22</v>
+      </c>
+      <c r="D3">
+        <v>-22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>6630</v>
+      </c>
+      <c r="D4">
+        <v>6630</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>70.42</v>
+      </c>
+      <c r="D8">
+        <v>70.42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
